--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_6_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_6_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.960928991276009e-16</v>
+        <v>1.15347846714302e-15</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.38793890204936</v>
+        <v>35.94130627491537</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.70735732657063, 48.06852047752808]</t>
+          <t>[28.339492578758453, 43.54311997107229]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.264184431174272</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0251843894597332, 1.50318447288881]</t>
+          <t>[1.3648160276856558, 1.8428161111147343]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.14824704145646</v>
+        <v>58.11143102589541</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.22422669252232, 66.0722673903906]</t>
+          <t>[52.980438232097086, 63.24242381969374]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20.49717717717763</v>
+        <v>19.29633633633679</v>
       </c>
       <c r="X2" t="n">
-        <v>19.52112112112156</v>
+        <v>18.3107707707712</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.47323323323371</v>
+        <v>20.28190190190238</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8900000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.895374301952302e-09</v>
+        <v>2.594127271215996e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>6.028452130163473e-09</v>
+        <v>8.782235579943773e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.80355831805522</v>
+        <v>32.1059606005995</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[25.886471555516536, 49.7206450805939]</t>
+          <t>[15.826883413478793, 48.38503778772021]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.114775187247233e-09</v>
+        <v>0.0001488923094397077</v>
       </c>
       <c r="N3" t="n">
-        <v>4.114775187247233e-09</v>
+        <v>0.0001488923094397077</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.547210796362541</v>
+        <v>-2.226474072814388</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.9245792832802344, -1.1698423094448476]</t>
+          <t>[-2.7170531058073886, -1.7358950398213873]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.280398092580072e-13</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>2.280398092580072e-13</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>57.84762874418892</v>
+        <v>65.24693200733429</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.11839711800711, 65.57686037037074]</t>
+          <t>[56.856767138543134, 73.63709687612545]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.882822822822895</v>
+        <v>8.398198198198292</v>
       </c>
       <c r="X3" t="n">
-        <v>4.447987987988041</v>
+        <v>6.547747747747821</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.317657657657749</v>
+        <v>10.24864864864876</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_6_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_6_sine_0.1_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>1.15347846714302e-15</v>
+        <v>7.350442094070002e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>35.94130627491537</v>
+        <v>33.11529962247812</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.339492578758453, 43.54311997107229]</t>
+          <t>[24.53834789804614, 41.6922513469101]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.139710713639943e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.279421427279885e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400195</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 1.8428161111147343]</t>
+          <t>[1.3773949772495788, 1.9560266571900415]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.11143102589541</v>
+        <v>62.31980698474494</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.980438232097086, 63.24242381969374]</t>
+          <t>[57.00992686611706, 67.62968710337282]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.29633633633679</v>
+        <v>19.05167167167212</v>
       </c>
       <c r="X2" t="n">
-        <v>18.3107707707712</v>
+        <v>17.85769769769812</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.28190190190238</v>
+        <v>20.24564564564612</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.70000000000027</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.594127271215996e-06</v>
+        <v>3.56050744443337e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>8.782235579943773e-06</v>
+        <v>1.738792116825875e-10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>32.1059606005995</v>
+        <v>43.6135786459636</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[15.826883413478793, 48.38503778772021]</t>
+          <t>[28.910575852393045, 58.316581439534154]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001488923094397077</v>
+        <v>3.06568748165148e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001488923094397077</v>
+        <v>3.06568748165148e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.226474072814388</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.7170531058073886, -1.7358950398213873]</t>
+          <t>[-1.610105544182157, -0.8805264694746162]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>3.574294193953165e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>3.574294193953165e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>65.24693200733429</v>
+        <v>62.67802708158476</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.856767138543134, 73.63709687612545]</t>
+          <t>[54.64107257011697, 70.71498159305256]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.398198198198292</v>
+        <v>4.742882882882942</v>
       </c>
       <c r="X3" t="n">
-        <v>6.547747747747821</v>
+        <v>3.353553553553592</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.24864864864876</v>
+        <v>6.132212212212291</v>
       </c>
     </row>
   </sheetData>
